--- a/Bug_Report/Adidas-Challenge Bugs.xlsx
+++ b/Bug_Report/Adidas-Challenge Bugs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alaaismail/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alaaismail/Downloads/Adidas-Challenge/Bug_Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287E07D0-8538-D44A-A9C8-F9B7AB336C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB39243-56D3-C445-A68D-AEC40C6F8920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19600" xr2:uid="{6C69B4A5-3B6E-FF41-8D9D-EE56CA09BCB1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Bug Title</t>
   </si>
@@ -152,6 +152,24 @@
   </si>
   <si>
     <t>User shall be redirected to the correct page</t>
+  </si>
+  <si>
+    <t>How to fix the bug</t>
+  </si>
+  <si>
+    <t>Make sure that the load on the API will not impact the API functionality</t>
+  </si>
+  <si>
+    <t>All the production website functionalities shall be working as per business to avoid any critical defects reported from customer</t>
+  </si>
+  <si>
+    <t>Screen/message shall display a details on how the user can signup for the newsletter. This can be done by contacting with the product owners on what is the expected behavior</t>
+  </si>
+  <si>
+    <t>An error message shall be displayed to the user that this product id already exists on the system to avoid duplication in the database. This shall be agreed from the beginning with the dev team and PO team</t>
+  </si>
+  <si>
+    <t>This is a main functionality of the website that should be tested on lower environments before go live. A regression set shall be created for such core dunctionality and shall be runned automatically to make sure that nothing is impacted after any deployment</t>
   </si>
 </sst>
 </file>
@@ -189,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -228,21 +246,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -375,27 +378,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -407,16 +407,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -736,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25109F98-8E9A-324C-93ED-5C4A8283CB97}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -749,9 +749,10 @@
     <col min="3" max="3" width="37.83203125" customWidth="1"/>
     <col min="4" max="4" width="35.5" customWidth="1"/>
     <col min="5" max="5" width="64.5" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,11 +771,14 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="404" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="404" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -793,100 +797,115 @@
       <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="H2" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="H3" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="H4" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="H5" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="86" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:8" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="10" t="s">
         <v>8</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
